--- a/biology/Botanique/Aeschynomeneae/Aeschynomeneae.xlsx
+++ b/biology/Botanique/Aeschynomeneae/Aeschynomeneae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aeschynomeneae sont une tribu de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire des régions tropicales, subtropicales et tempérées chaudes, qui compte environ 23 genres et 530 espèces.
-La tribu des Aeschynomeneae est subdivisée en 5 sous-tribus : Aeschynomeninae Benth., Ormocarpinae Rudd, Discolobiinae (Burkart) Rudd, Poiretiinae (Burkart) Rudd et Stylosanthinae (Benth.) Rudd[3].
+La tribu des Aeschynomeneae est subdivisée en 5 sous-tribus : Aeschynomeninae Benth., Ormocarpinae Rudd, Discolobiinae (Burkart) Rudd, Poiretiinae (Burkart) Rudd et Stylosanthinae (Benth.) Rudd.
 Certains auteurs placent cette tribu au sein de la tribu des Dalbergieae.
-Cette tribu comprend des espèces ayant un intérêt économique comme Stylosanthes guianensis, plante fourragère surnommée « luzerne tropicale[4] », et surtout Arachis hypogaea, l'arachide[5].
+Cette tribu comprend des espèces ayant un intérêt économique comme Stylosanthes guianensis, plante fourragère surnommée « luzerne tropicale », et surtout Arachis hypogaea, l'arachide.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (16 août 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (16 août 2018) :
 Adesmia DC.
 Aeschynomene L.
 Amicia Kunth
